--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slit1-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slit1-Robo1.xlsx
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2798346666666667</v>
+        <v>0.04332866666666666</v>
       </c>
       <c r="H2">
-        <v>0.839504</v>
+        <v>0.129986</v>
       </c>
       <c r="I2">
-        <v>0.4621536754116699</v>
+        <v>0.2246397599897691</v>
       </c>
       <c r="J2">
-        <v>0.4621536754116699</v>
+        <v>0.2246397599897691</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1325553333333333</v>
+        <v>0.007258333333333333</v>
       </c>
       <c r="N2">
-        <v>0.397666</v>
+        <v>0.021775</v>
       </c>
       <c r="O2">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="P2">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="Q2">
-        <v>0.03709357751822222</v>
+        <v>0.0003144939055555555</v>
       </c>
       <c r="R2">
-        <v>0.333842197664</v>
+        <v>0.00283044515</v>
       </c>
       <c r="S2">
-        <v>0.00246773571362211</v>
+        <v>7.383171199587624E-05</v>
       </c>
       <c r="T2">
-        <v>0.002467735713622109</v>
+        <v>7.383171199587623E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2798346666666667</v>
+        <v>0.04332866666666666</v>
       </c>
       <c r="H3">
-        <v>0.839504</v>
+        <v>0.129986</v>
       </c>
       <c r="I3">
-        <v>0.4621536754116699</v>
+        <v>0.2246397599897691</v>
       </c>
       <c r="J3">
-        <v>0.4621536754116699</v>
+        <v>0.2246397599897691</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>51.534798</v>
       </c>
       <c r="O3">
-        <v>0.6919812904497951</v>
+        <v>0.7778551418094273</v>
       </c>
       <c r="P3">
-        <v>0.691981290449795</v>
+        <v>0.7778551418094272</v>
       </c>
       <c r="Q3">
-        <v>4.807074340021334</v>
+        <v>0.7443113614253333</v>
       </c>
       <c r="R3">
-        <v>43.263669060192</v>
+        <v>6.698802252828</v>
       </c>
       <c r="S3">
-        <v>0.319801696697483</v>
+        <v>0.1747371923628776</v>
       </c>
       <c r="T3">
-        <v>0.319801696697483</v>
+        <v>0.1747371923628776</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2798346666666667</v>
+        <v>0.04332866666666666</v>
       </c>
       <c r="H4">
-        <v>0.839504</v>
+        <v>0.129986</v>
       </c>
       <c r="I4">
-        <v>0.4621536754116699</v>
+        <v>0.2246397599897691</v>
       </c>
       <c r="J4">
-        <v>0.4621536754116699</v>
+        <v>0.2246397599897691</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.513933666666667</v>
+        <v>4.898620999999999</v>
       </c>
       <c r="N4">
-        <v>22.541801</v>
+        <v>14.695863</v>
       </c>
       <c r="O4">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="P4">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="Q4">
-        <v>2.102659122967111</v>
+        <v>0.2122507164353333</v>
       </c>
       <c r="R4">
-        <v>18.923932106704</v>
+        <v>1.910256447918</v>
       </c>
       <c r="S4">
-        <v>0.1398842430005648</v>
+        <v>0.04982873591489569</v>
       </c>
       <c r="T4">
-        <v>0.1398842430005648</v>
+        <v>0.04982873591489569</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.344612</v>
       </c>
       <c r="I5">
-        <v>0.1897116659253159</v>
+        <v>0.5955530362469368</v>
       </c>
       <c r="J5">
-        <v>0.1897116659253159</v>
+        <v>0.5955530362469369</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1325553333333333</v>
+        <v>0.007258333333333333</v>
       </c>
       <c r="N5">
-        <v>0.397666</v>
+        <v>0.021775</v>
       </c>
       <c r="O5">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="P5">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="Q5">
-        <v>0.01522671951022222</v>
+        <v>0.0008337695888888889</v>
       </c>
       <c r="R5">
-        <v>0.137040475592</v>
+        <v>0.007503926300000001</v>
       </c>
       <c r="S5">
-        <v>0.001012992600086173</v>
+        <v>0.0001957387252036597</v>
       </c>
       <c r="T5">
-        <v>0.001012992600086173</v>
+        <v>0.0001957387252036597</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.344612</v>
       </c>
       <c r="I6">
-        <v>0.1897116659253159</v>
+        <v>0.5955530362469368</v>
       </c>
       <c r="J6">
-        <v>0.1897116659253159</v>
+        <v>0.5955530362469369</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>51.534798</v>
       </c>
       <c r="O6">
-        <v>0.6919812904497951</v>
+        <v>0.7778551418094273</v>
       </c>
       <c r="P6">
-        <v>0.691981290449795</v>
+        <v>0.7778551418094272</v>
       </c>
       <c r="Q6">
         <v>1.973278867597334</v>
@@ -818,10 +818,10 @@
         <v>17.759509808376</v>
       </c>
       <c r="S6">
-        <v>0.1312769234003805</v>
+        <v>0.463253991464896</v>
       </c>
       <c r="T6">
-        <v>0.1312769234003805</v>
+        <v>0.463253991464896</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.344612</v>
       </c>
       <c r="I7">
-        <v>0.1897116659253159</v>
+        <v>0.5955530362469368</v>
       </c>
       <c r="J7">
-        <v>0.1897116659253159</v>
+        <v>0.5955530362469369</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.513933666666667</v>
+        <v>4.898620999999999</v>
       </c>
       <c r="N7">
-        <v>22.541801</v>
+        <v>14.695863</v>
       </c>
       <c r="O7">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="P7">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="Q7">
-        <v>0.8631305695791113</v>
+        <v>0.5627078600173333</v>
       </c>
       <c r="R7">
-        <v>7.768175126212002</v>
+        <v>5.064370740156</v>
       </c>
       <c r="S7">
-        <v>0.05742174992484924</v>
+        <v>0.1321033060568372</v>
       </c>
       <c r="T7">
-        <v>0.05742174992484923</v>
+        <v>0.1321033060568372</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.210796</v>
+        <v>0.03468133333333333</v>
       </c>
       <c r="H8">
-        <v>0.6323880000000001</v>
+        <v>0.104044</v>
       </c>
       <c r="I8">
-        <v>0.3481346586630142</v>
+        <v>0.1798072037632941</v>
       </c>
       <c r="J8">
-        <v>0.3481346586630142</v>
+        <v>0.1798072037632941</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1325553333333333</v>
+        <v>0.007258333333333333</v>
       </c>
       <c r="N8">
-        <v>0.397666</v>
+        <v>0.021775</v>
       </c>
       <c r="O8">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="P8">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="Q8">
-        <v>0.02794213404533333</v>
+        <v>0.0002517286777777777</v>
       </c>
       <c r="R8">
-        <v>0.251479206408</v>
+        <v>0.0022655581</v>
       </c>
       <c r="S8">
-        <v>0.001858914850275947</v>
+        <v>5.909672305401311E-05</v>
       </c>
       <c r="T8">
-        <v>0.001858914850275947</v>
+        <v>5.90967230540131E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.210796</v>
+        <v>0.03468133333333333</v>
       </c>
       <c r="H9">
-        <v>0.6323880000000001</v>
+        <v>0.104044</v>
       </c>
       <c r="I9">
-        <v>0.3481346586630142</v>
+        <v>0.1798072037632941</v>
       </c>
       <c r="J9">
-        <v>0.3481346586630142</v>
+        <v>0.1798072037632941</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>51.534798</v>
       </c>
       <c r="O9">
-        <v>0.6919812904497951</v>
+        <v>0.7778551418094273</v>
       </c>
       <c r="P9">
-        <v>0.691981290449795</v>
+        <v>0.7778551418094272</v>
       </c>
       <c r="Q9">
-        <v>3.621109759736</v>
+        <v>0.5957651692346667</v>
       </c>
       <c r="R9">
-        <v>32.589987837624</v>
+        <v>5.361886523112</v>
       </c>
       <c r="S9">
-        <v>0.2409026703519315</v>
+        <v>0.1398639579816537</v>
       </c>
       <c r="T9">
-        <v>0.2409026703519315</v>
+        <v>0.1398639579816537</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.210796</v>
+        <v>0.03468133333333333</v>
       </c>
       <c r="H10">
-        <v>0.6323880000000001</v>
+        <v>0.104044</v>
       </c>
       <c r="I10">
-        <v>0.3481346586630142</v>
+        <v>0.1798072037632941</v>
       </c>
       <c r="J10">
-        <v>0.3481346586630142</v>
+        <v>0.1798072037632941</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.513933666666667</v>
+        <v>4.898620999999999</v>
       </c>
       <c r="N10">
-        <v>22.541801</v>
+        <v>14.695863</v>
       </c>
       <c r="O10">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="P10">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="Q10">
-        <v>1.583907161198667</v>
+        <v>0.1698907077746667</v>
       </c>
       <c r="R10">
-        <v>14.255164450788</v>
+        <v>1.529016369972</v>
       </c>
       <c r="S10">
-        <v>0.1053730734608068</v>
+        <v>0.03988414905858637</v>
       </c>
       <c r="T10">
-        <v>0.1053730734608068</v>
+        <v>0.03988414905858637</v>
       </c>
     </row>
   </sheetData>
